--- a/docs/SCRUM/ProduktBacklog.xlsx
+++ b/docs/SCRUM/ProduktBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigur\Documents\GitHub\SE02_Projekt\docs\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B1CB78-D42D-4FD0-93CA-12A1BB80A6E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{110E7452-06E0-4B36-B608-2AC9F42DA214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18720" xr2:uid="{289AF8C4-6669-4177-979C-FD117B8DC09C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Arbejdsmængde</t>
   </si>
@@ -229,39 +229,6 @@
   </si>
   <si>
     <t>Vægt</t>
-  </si>
-  <si>
-    <t>Beskrivelse</t>
-  </si>
-  <si>
-    <t>½ dag</t>
-  </si>
-  <si>
-    <t>1-2 dage</t>
-  </si>
-  <si>
-    <t>1 uge</t>
-  </si>
-  <si>
-    <t>1 sprint</t>
-  </si>
-  <si>
-    <t>1 sprint+</t>
-  </si>
-  <si>
-    <t>4 timer</t>
-  </si>
-  <si>
-    <t>8-16 timer</t>
-  </si>
-  <si>
-    <t>40 timer</t>
-  </si>
-  <si>
-    <t>80 timer</t>
-  </si>
-  <si>
-    <t>80 timer+</t>
   </si>
   <si>
     <t>Timer</t>
@@ -667,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2249B73E-AB70-4821-97D5-4C4669754102}">
-  <dimension ref="B3:F42"/>
+  <dimension ref="B3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1039,7 +1006,7 @@
         <v>136.66666666666666</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
@@ -1052,11 +1019,8 @@
       <c r="E36" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -1066,14 +1030,11 @@
       <c r="D37" s="7">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>56</v>
       </c>
@@ -1083,14 +1044,11 @@
       <c r="D38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>57</v>
       </c>
@@ -1100,14 +1058,11 @@
       <c r="D39" s="7">
         <v>5</v>
       </c>
-      <c r="E39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>58</v>
       </c>
@@ -1117,14 +1072,11 @@
       <c r="D40" s="7">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>59</v>
       </c>
@@ -1134,14 +1086,11 @@
       <c r="D41" s="7">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D42" s="7"/>
     </row>
   </sheetData>

--- a/docs/SCRUM/ProduktBacklog.xlsx
+++ b/docs/SCRUM/ProduktBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigur\Documents\GitHub\SE02_Projekt\docs\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{110E7452-06E0-4B36-B608-2AC9F42DA214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760585F6-CB3B-43C9-8AB6-B0ACC0420E27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="27977" windowHeight="18720" xr2:uid="{289AF8C4-6669-4177-979C-FD117B8DC09C}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="B3:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1030,7 +1030,7 @@
       <c r="D37" s="7">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       <c r="D38" s="7">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       <c r="D39" s="7">
         <v>5</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>40</v>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       <c r="D40" s="7">
         <v>8</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>80</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="D41" s="7">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>80</v>
       </c>
     </row>
